--- a/Results_sim_data/sim_ci_amplitude.xlsx
+++ b/Results_sim_data/sim_ci_amplitude.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apollinaria45/Documents/PhD/InVivo_Code/vivo_lm/Results_sim_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B8C4E9-5D51-E349-A475-73DB710115A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nb. anim.=10, Nb. groups.=4" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Nb. anim.=30, Nb. groups.=4" sheetId="3" r:id="rId3"/>
     <sheet name="Nb. anim.=30, Nb. groups.=10" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -46,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +116,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +168,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -188,6 +202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,9 +237,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,14 +413,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,29 +436,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.703557546207665</v>
+        <v>6.7035575462076649</v>
       </c>
       <c r="C2">
-        <v>2.400770588497319</v>
+        <v>2.4007705884973189</v>
       </c>
       <c r="D2">
         <v>10.9729195794435</v>
       </c>
       <c r="E2">
-        <v>3.905313405723498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3.9053134057234979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.416804847005353</v>
+        <v>6.4168048470053529</v>
       </c>
       <c r="C3">
         <v>2.284195495155867</v>
@@ -449,15 +467,15 @@
         <v>10.82836565614614</v>
       </c>
       <c r="E3">
-        <v>3.882081680129596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>3.8820816801295961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.359915540875175</v>
+        <v>6.3599155408751749</v>
       </c>
       <c r="C4">
         <v>2.180569391542607</v>
@@ -466,10 +484,10 @@
         <v>10.42841143378117</v>
       </c>
       <c r="E4">
-        <v>3.446378240741418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>3.4463782407414181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -477,13 +495,13 @@
         <v>11.58199422377384</v>
       </c>
       <c r="C5">
-        <v>4.338568891200606</v>
+        <v>4.3385688912006062</v>
       </c>
       <c r="D5">
-        <v>18.68444322288613</v>
+        <v>18.684443222886131</v>
       </c>
       <c r="E5">
-        <v>6.97360503469915</v>
+        <v>6.9736050346991503</v>
       </c>
     </row>
   </sheetData>
@@ -492,14 +510,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,41 +531,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.676199286218293</v>
+        <v>1.6761992862182931</v>
       </c>
       <c r="C2">
-        <v>0.6071892265464895</v>
+        <v>0.60718922654648955</v>
       </c>
       <c r="D2">
-        <v>2.722422957103056</v>
+        <v>2.7224229571030558</v>
       </c>
       <c r="E2">
-        <v>0.9847255161843904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.98472551618439041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.581708523317415</v>
+        <v>1.5817085233174151</v>
       </c>
       <c r="C3">
-        <v>0.5724431874600697</v>
+        <v>0.57244318746006972</v>
       </c>
       <c r="D3">
         <v>2.579364777980472</v>
       </c>
       <c r="E3">
-        <v>0.9302601359346855</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.93026013593468548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -558,13 +576,13 @@
         <v>0.5681225985831666</v>
       </c>
       <c r="D4">
-        <v>2.566477486235269</v>
+        <v>2.5664774862352688</v>
       </c>
       <c r="E4">
-        <v>0.9143957587529705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.91439575875297052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -572,13 +590,13 @@
         <v>1.911129144475564</v>
       </c>
       <c r="C5">
-        <v>0.6866568755178299</v>
+        <v>0.68665687551782995</v>
       </c>
       <c r="D5">
         <v>3.099602566818084</v>
       </c>
       <c r="E5">
-        <v>1.112325560071962</v>
+        <v>1.1123255600719619</v>
       </c>
     </row>
   </sheetData>
@@ -587,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -619,13 +637,13 @@
         <v>1.432548625267434</v>
       </c>
       <c r="D2">
-        <v>6.534327007598452</v>
+        <v>6.5343270075984519</v>
       </c>
       <c r="E2">
-        <v>2.341533033621212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>2.3415330336212121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -633,24 +651,24 @@
         <v>3.897207558056996</v>
       </c>
       <c r="C3">
-        <v>1.404716064094557</v>
+        <v>1.4047160640945571</v>
       </c>
       <c r="D3">
-        <v>6.513889535246144</v>
+        <v>6.5138895352461441</v>
       </c>
       <c r="E3">
         <v>2.328933819005687</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.896310469017026</v>
+        <v>3.8963104690170258</v>
       </c>
       <c r="C4">
-        <v>1.384077464373923</v>
+        <v>1.3840774643739231</v>
       </c>
       <c r="D4">
         <v>6.475925626837908</v>
@@ -659,21 +677,21 @@
         <v>2.233419831351207</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>7.40554334257326</v>
+        <v>7.4055433425732602</v>
       </c>
       <c r="C5">
-        <v>2.735035037090846</v>
+        <v>2.7350350370908458</v>
       </c>
       <c r="D5">
-        <v>12.01188602942423</v>
+        <v>12.011886029424231</v>
       </c>
       <c r="E5">
-        <v>4.447163392837849</v>
+        <v>4.4471633928378491</v>
       </c>
     </row>
   </sheetData>
@@ -682,14 +700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,64 +729,64 @@
         <v>0.9757645611757243</v>
       </c>
       <c r="C2">
-        <v>0.35378764525199</v>
+        <v>0.35378764525199002</v>
       </c>
       <c r="D2">
-        <v>1.5899088508909</v>
+        <v>1.5899088508909001</v>
       </c>
       <c r="E2">
-        <v>0.5763279197451937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.57632791974519371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.9503225796159469</v>
+        <v>0.95032257961594691</v>
       </c>
       <c r="C3">
-        <v>0.3471096779700115</v>
+        <v>0.34710967797001152</v>
       </c>
       <c r="D3">
         <v>1.556578030261943</v>
       </c>
       <c r="E3">
-        <v>0.5609455051749384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.56094550517493835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9500625819116418</v>
+        <v>0.95006258191164183</v>
       </c>
       <c r="C4">
-        <v>0.3460642731556681</v>
+        <v>0.34606427315566812</v>
       </c>
       <c r="D4">
         <v>1.552875588169869</v>
       </c>
       <c r="E4">
-        <v>0.5572549260535198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.55725492605351978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.098782330741147</v>
+        <v>1.0987823307411471</v>
       </c>
       <c r="C5">
-        <v>0.3940347757882202</v>
+        <v>0.39403477578822022</v>
       </c>
       <c r="D5">
-        <v>1.790466447272767</v>
+        <v>1.7904664472727669</v>
       </c>
       <c r="E5">
-        <v>0.6422141714601153</v>
+        <v>0.64221417146011528</v>
       </c>
     </row>
   </sheetData>
